--- a/약품/result.xlsx
+++ b/약품/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Doyeon\Desktop\기프 프로젝트\약품\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED8388F-2548-4EE7-9630-933BFDE3BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824C58C-47AF-4902-A1AD-99F0B7490681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="결과 테이블" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13923" uniqueCount="1510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13929" uniqueCount="1514">
   <si>
     <t>성분 1</t>
   </si>
@@ -4561,6 +4561,18 @@
   </si>
   <si>
     <t>Calcium Channel Blockers(Verapamil)/Macrolide Antibiotics임상효과: 두 약물의 병용투여시 심독성의 위험이 증가할 수 있다.기전: CYP3A4에 의해 대사되는 마크로라이드계 항생제와 CYP3A4 저해 작용을 가진 베라파밀의 병용투여시 마크로라이드계 항생제의 대사가 저해되어 이 약물의 혈중 농도 및 작용이 증가될 수 있다. 특히 P-당단백(P-glycoprotein)과 에리스로마이신(Erythromycin)의 대사(CYP3A4)는 베라파밀에 의해 억제됨으로써 에리스로마이신의 흡수가 증가한다.처치: 두 약물의 병용투여시에는 환자의 심장 기능을 주의깊게 모니터링 해야 한다.</t>
+  </si>
+  <si>
+    <t>Methadone</t>
+  </si>
+  <si>
+    <t>Nevirapine Hemihydrate</t>
+  </si>
+  <si>
+    <t>Peginterferon Alfa-2b</t>
+  </si>
+  <si>
+    <t>Opioid Analgesics(Methadone)/Peginterferon Alfa-2b임상효과: 두 약물의 병용투여시 메타돈의 혈장농도가 약간 증가할 수 있다.기전: 페그인터페론알파-2B에 의해 메타돈의 대사가 억제되어 이 약물의 혈장농도가 증가될 수 있다.처치: 두 약물의 병용투여시 특별한 주의사항은 필요하지 않다.</t>
   </si>
 </sst>
 </file>
@@ -4907,10 +4919,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4641"/>
+  <dimension ref="A1:C4643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4478" workbookViewId="0">
-      <selection activeCell="B4497" sqref="B4497"/>
+    <sheetView tabSelected="1" topLeftCell="A4624" workbookViewId="0">
+      <selection activeCell="A4643" sqref="A4643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -55966,6 +55978,28 @@
         <v>1509</v>
       </c>
     </row>
+    <row r="4642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4642" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B4642" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C4642" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4643" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B4643" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C4643" t="s">
+        <v>1513</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
